--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Durchon/Maurice_Durchon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Durchon/Maurice_Durchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Durchon, né le 9 février 1921 à Cherbourg et mort le 23 novembre 1994 à Caen[1], est un zoologiste français. Professeur à l'université de Lille, il est notamment l'un des fondateurs de l'endocrinologie des invertébrés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Durchon, né le 9 février 1921 à Cherbourg et mort le 23 novembre 1994 à Caen, est un zoologiste français. Professeur à l'université de Lille, il est notamment l'un des fondateurs de l'endocrinologie des invertébrés.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière en tant qu’assistant en zoologie à la Faculté des sciences de Caen, puis chef de travaux en zoologie marine au laboratoire maritime de Luc-sur-Mer.
 Il obtient une thèse à l’université de Paris intitulée Recherches expérimentales sur deux aspects de la reproduction chez les Annélides polychètes : l'épitoquie et la stolonisation.
 De 1952 à 1958, il est maitre de conférences puis professeur à l’université d’Alger.
 À partir de 1959 il devient professeur à Lille et remplace Maxime Lamotte à la chaire de zoologie générale et appliquée.  En 1961, il succède à Armand Dehorne comme Directeur du Laboratoire régional de Zoologie appliquée.
-Il est l'un des principaux fondateurs de l'endocrinologie des invertébrés et encadre de nombreux travaux de recherche à Lille[2].
-Il obtient de nombreuses récompenses dont la médaille d’argent du CNRS en 1964 et sera correspondant de l’Académie de Sciences de 1974 à 1994[3].
+Il est l'un des principaux fondateurs de l'endocrinologie des invertébrés et encadre de nombreux travaux de recherche à Lille.
+Il obtient de nombreuses récompenses dont la médaille d’argent du CNRS en 1964 et sera correspondant de l’Académie de Sciences de 1974 à 1994.
 </t>
         </is>
       </c>
